--- a/xlslist/p_hit_class.xlsx
+++ b/xlslist/p_hit_class.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+  <si>
+    <t>Phylum</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,89 +69,22 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -433,7 +385,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -444,87 +396,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Phylum</t>
-        </is>
+      <c r="B2" t="s">
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>79.98818752307125</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>97.74127918864761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>11.11111111111111</v>
+        <v>12.5</v>
       </c>
       <c r="D3" t="n">
-        <v>33.69742063492064</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>98.99647699370129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Order</t>
-        </is>
+      <c r="B4" t="s">
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>4.761904761904763</v>
       </c>
       <c r="D4" t="n">
-        <v>42.79746997722205</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>70.1988545326365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Family</t>
-        </is>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>2.564102564102563</v>
+        <v>3.333333333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>15.85798703042861</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>88.30712788259957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Genus</t>
-        </is>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1.030927835051547</v>
+        <v>1.818181818181817</v>
       </c>
       <c r="D6" t="n">
-        <v>8.80281690140845</v>
+        <v>94.9662369551872</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/xlslist/p_hit_class.xlsx
+++ b/xlslist/p_hit_class.xlsx
@@ -407,7 +407,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>97.74127918864761</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -421,7 +421,7 @@
         <v>12.5</v>
       </c>
       <c r="D3" t="n">
-        <v>98.99647699370129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -435,7 +435,7 @@
         <v>4.761904761904763</v>
       </c>
       <c r="D4" t="n">
-        <v>70.1988545326365</v>
+        <v>70.95629919654147</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -449,7 +449,7 @@
         <v>3.333333333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>88.30712788259957</v>
+        <v>90.8595387840671</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -463,7 +463,7 @@
         <v>1.818181818181817</v>
       </c>
       <c r="D6" t="n">
-        <v>94.9662369551872</v>
+        <v>96.59300184162059</v>
       </c>
     </row>
   </sheetData>

--- a/xlslist/p_hit_class.xlsx
+++ b/xlslist/p_hit_class.xlsx
@@ -418,10 +418,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>98.59078590785909</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -432,10 +432,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>4.761904761904763</v>
+        <v>5.000000000000002</v>
       </c>
       <c r="D4" t="n">
-        <v>70.95629919654147</v>
+        <v>94.42673126032749</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -446,10 +446,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>3.333333333333334</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="D5" t="n">
-        <v>90.8595387840671</v>
+        <v>96.04066345639379</v>
       </c>
     </row>
     <row r="6" spans="1:4">
